--- a/biology/Médecine/Allyre_Chassevant/Allyre_Chassevant.xlsx
+++ b/biology/Médecine/Allyre_Chassevant/Allyre_Chassevant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allyre  Julien Chassevant , né  le 24 mars 1865 à Paris 1er[1]
-et mort le 22 mai 1933 à Paris 6e[2], est un professeur à la faculté de médecine de Paris, bactériologiste, hygiéniste et hydrologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allyre  Julien Chassevant , né  le 24 mars 1865 à Paris 1er
+et mort le 22 mai 1933 à Paris 6e, est un professeur à la faculté de médecine de Paris, bactériologiste, hygiéniste et hydrologue français.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né d'un père pharmacien, Allyre Chassevant fait ses études à  l’École alsacienne, puis à la faculté des sciences  (Sorbonne), à la  faculté de pharmacie et enfin à la faculté de médecine de Paris  dont il sort successivement licencié ès-sciences physiques en 1887, pharmacien de 1er classe en 1892, docteur en médecine en 1893 puis agrégé de chimie biologique et de toxicologie en 1895. Il s’occupe alors de toutes les questions dans lesquelles la chimie s'ajoute à l’examen clinique d’un patient et s’intéresse plus particulièrement à l’étude des maladies de l’estomac et de la nutrition. Consultant technique, il apporte à ses confrères un précieux diagnostic par l’analyse des liquides et excrétas des malades qui lui sont confiés.En 1906, il fonde la revue mensuelle L'Hygiène générale et appliquée, sous la direction du docteur André Chantemesse (fin de publication en 1910). Ses travaux sur les chlorures doubles , la toxicité des métaux ou l’action des sels métalliques sur la fermentation lactique lui valent de nombreuses récompenses académiques. Membre du syndicat médical de Paris, il s'occupe en priorité de la répression de l'exercice illégal de la médecine.
 Il meurt au no 3, avenue de l'Observatoire à Paris.
@@ -544,7 +558,9 @@
           <t>Membre de sociétés et de commissions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Société chimique de France
 Société de thérapeutique
@@ -591,10 +607,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
- Officier de la Légion d'honneur par décret du 24 août 1921[3]</t>
+ Officier de la Légion d'honneur par décret du 24 août 1921</t>
         </is>
       </c>
     </row>
@@ -622,7 +640,9 @@
           <t>Œuvres  principales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sur quelques nouveaux chlorures doubles, Paris : 1892.
 Action des sels métalliques sur la fermentation lactique, Paris : 1893.
